--- a/analysis_results.xlsx
+++ b/analysis_results.xlsx
@@ -7,10 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CC0603KRX5R7BB225" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CC0402KRX7R9BB103" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="CC0603KRX5R9BB105" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="CC0402KRX5R6BB105" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="V23047-A1024-A501" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="LTV-815S" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="UCC3946D" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,13 +30,23 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3D3D3"/>
+        <bgColor rgb="00D3D3D3"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,10 +67,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,59 +443,589 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="80" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>JSON File</t>
+          <t>Parameter</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>LLM Analysis</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CC0603KRX5R7BB225.json</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Here is a detailed comparison table for the two electronic components:
-| Parameter                  | CC0603KRX5R7BB225           | EMK107BJ225KA-T              |
-|----------------------------|------------------------------|-------------------------------|
-| **Part Number**            | CC0603KRX5R7BB225           | EMK107BJ225KA-T               |
-| **Manufacturer (Mfr)**     | YAGEO                        | Taiyo Yuden                   |
-| **Part Status**            | Active                       | Not For New Designs           |
-| **Capacitance**            | 2.2 µF                      | 2.2 µF                        |
-| **Tolerance**              | ±10%                        | ±10%                          |
-| **Voltage - Rated**        | 16V                          | 16V                           |
-| **Temperature Coefficient**| X5R                          | X5R                           |
-| **Operating Temperature**   | -55°C ~ 85°C                | -55°C ~ 85°C                 |
-| **Features**               | -                            | -                             |
-| **Ratings**                | -                            | -                             |
-| **Applications**           | General Purpose              | SMPS Filtering                |
-| **Failure Rate**           | -                            | -                             |
-| **Mounting Type**          | Surface Mount, MLCC         | Surface Mount, MLCC          |
-| **Package / Case**         | 0603 (1608 Metric)         | 0603 (1608 Metric)           |
-| **Size / Dimension**       | 0.063" L x 0.031" W         | 0.063" L x 0.031" W          |
-| **Height - Seated (Max)**  | -                            | -                             |
-| **Thickness (Max)**        | 0.035" (0.90mm)             | 0.035" (0.90mm)              |
-| **Lead Spacing**           | -                            | -                             |
-| **Lead Style**             | -                            | -                             |
-### Key Differences:
-- **Part Status**: The CC0603KRX5R7BB225 is active, while the EMK107BJ225KA-T is marked as "Not For New Designs," indicating it may be phased out.
-- **Applications**: The CC0603KRX5R7BB225 is suitable for general-purpose applications, whereas the EMK107BJ225KA-T is specifically designed for SMPS (Switched-Mode Power Supply) filtering.</t>
+          <t>V23047-A1024-A501</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>8768680000</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Replacement Justification</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Approval Agency</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>cURus, TUV, VDE</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>8768680000 has additional approvals (cURus, TUV, VDE); may be beneficial for compliance in certain applications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Coil Current</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>29.2 mA</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>8768680000 has a coil current of 29.2 mA; V23047 does not specify, but both should be compatible with 24VDC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Coil Insulation</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Coil Type</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Non Latching</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>8768680000 is non-latching; V23047 does not specify; may affect application if latching is required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Coil Voltage</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>24VDC</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>24VDC</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Both have a coil voltage of 24VDC, ensuring electrical compatibility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Contact Form</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>DPDT (2 Form C)</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>DPDT (2 Form C)</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Both are DPDT (2 Form C), ensuring mechanical compatibility in switching applications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Contact Material</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Silver Nickel (AgNi)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Silver Nickel (AgNi)</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Both use Silver Nickel (AgNi), ensuring similar performance characteristics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Contact Rating (Current)</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>6 A</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6 A</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Both rated for 6 A, ensuring electrical compatibility for load handling.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Features</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Sealed - Fully</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>V23047 is fully sealed; 8768680000 has no specified features; may affect environmental suitability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Load - Max Switching</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1500VA</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>8768680000 has a maximum switching load of 1500VA; not directly comparable but indicates different capabilities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Mfr</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>TE Connectivity Potter &amp; Brumfield Relays</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Weidmüller</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>Different manufacturers (TE Connectivity vs. Weidmüller); may affect sourcing and availability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Mounting Type</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Through Hole</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Through Hole</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Both are through-hole mounted, ensuring mechanical compatibility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Must Operate Voltage</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>18 VDC</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18 VDC</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Both have a must operate voltage of 18 VDC, ensuring electrical compatibility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Must Release Voltage</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>2.4 VDC</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2.4 VDC</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Both have a must release voltage of 2.4 VDC, ensuring electrical compatibility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Operate Time</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>10 ms</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>8768680000 has an operate time of 10 ms; V23047 does not specify; may affect performance in time-sensitive applications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Operating Temperature</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>-25°C ~ 70°C</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-25°C ~ 70°C</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Both operate within -25°C to 70°C, ensuring thermal compatibility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="30" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>V23047-A1024-A501</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8768680000</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Different part numbers; however, both are active components.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="30" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Part Status</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Both components are active, ensuring availability for replacement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Qualification</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Relay Type</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>General Purpose</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>8768680000 is classified as a general-purpose relay; V23047 does not specify; may affect application suitability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="30" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Release Time</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>4 ms</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>8768680000 has a release time of 4 ms; V23047 does not specify; may affect performance in time-sensitive applications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="30" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Seal Rating</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="30" customHeight="1">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Switching Voltage</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>400VAC - Max</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>250VAC - Max</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>V23047 supports 400VAC, while 8768680000 supports 250VAC; V23047 is more robust for higher voltage applications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="30" customHeight="1">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Termination Style</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>PC Pin</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>PC Pin</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>Both use PC Pin termination, ensuring mechanical compatibility.</t>
         </is>
       </c>
     </row>
@@ -495,60 +1040,479 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="80" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>JSON File</t>
+          <t>Parameter</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>LLM Analysis</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CC0402KRX7R9BB103.json</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Here is a detailed comparison table for the two electronic components:
-| Parameter                   | CC0402KRX7R9BB103              | GRM155R71H103KA88J            |
-|-----------------------------|----------------------------------|--------------------------------|
-| **Part Number**             | CC0402KRX7R9BB103               | GRM155R71H103KA88J             |
-| **Manufacturer (Mfr)**      | YAGEO                            | Murata Electronics              |
-| **Part Status**             | Active                           | Active                          |
-| **Capacitance**             | 10000 pF                        | 10000 pF                       |
-| **Tolerance**               | ±10%                            | ±10%                           |
-| **Voltage - Rated**         | 50V                             | 50V                            |
-| **Temperature Coefficient** | X7R                             | X7R                            |
-| **Operating Temperature**    | -55°C ~ 125°C                  | -55°C ~ 125°C                 |
-| **Features**                | -                               | -                              |
-| **Ratings**                 | -                               | -                              |
-| **Applications**            | General Purpose                 | General Purpose                |
-| **Failure Rate**            | -                               | -                              |
-| **Mounting Type**           | Surface Mount, MLCC             | Surface Mount, MLCC            |
-| **Package / Case**          | 0402 (1005 Metric)             | 0402 (1005 Metric)            |
-| **Size / Dimension**        | 0.039" L x 0.020" W (1.00mm x 0.50mm) | 0.039" L x 0.020" W (1.00mm x 0.50mm) |
-| **Height - Seated (Max)**   | -                               | -                              |
-| **Thickness (Max)**         | 0.022" (0.55mm)                | 0.022" (0.55mm)               |
-| **Lead Spacing**            | -                               | -                              |
-| **Lead Style**              | -                               | -                              |
-### Key Differences:
-- **Manufacturer**: The components are from different manufacturers (YAGEO vs. Murata Electronics).
-- **Part Number**: Each component has a unique part number.
-- **All other parameters are identical**, indicating that they are very similar in specifications and intended applications.</t>
+          <t>LTV-815S</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>LTV-815S-TA</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Replacement Justification</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Current - DC Forward (If) (Max)</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>50 mA</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>50 mA</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Both have a maximum forward current of 50mA, ensuring they can be driven similarly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Current - Output / Channel</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>80mA</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>80mA</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Both can output 80mA, ensuring they can drive the same load without issues.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Current Transfer Ratio (Max)</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>7500% @ 1mA</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7500% @ 1mA</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Current Transfer Ratio (Min)</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>600% @ 1mA</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>600% @ 1mA</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Input Type</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Both are DC input, ensuring compatibility with the same control signals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Mfr</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Lite-On Inc.</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Lite-On Inc.</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Both components are manufactured by Lite-On Inc., ensuring consistency in quality.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Mounting Type</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Surface Mount</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Surface Mount</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Both are surface mount, ensuring they fit the same PCB footprint.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Number of Channels</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Both have 1 channel, ensuring they can replace each other without affecting functionality.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Operating Temperature</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>-30°C ~ 100°C</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>-30°C ~ 100°C</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Both operate within the same temperature range (-30°C to 100°C), ensuring thermal compatibility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Output Type</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Darlington</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Darlington</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Both use Darlington output, ensuring similar output characteristics and drive capabilities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Package / Case</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>4-SMD, Gull Wing</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4-SMD, Gull Wing</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Both are in a 4-SMD, Gull Wing package, ensuring mechanical compatibility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>LTV-815S</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>LTV-815S-TA</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>LTV-815S-TA is a variant of LTV-815S, indicating it is designed for similar applications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Part Status</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Both parts are active, indicating they are currently in production and available.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Rise / Fall Time (Typ)</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>60µs, 53µs</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>60µs, 53µs</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Identical rise (60µs) and fall (53µs) times ensure similar switching performance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Supplier Device Package</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>4-SMD</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4-SMD</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Both are labeled as 4-SMD, ensuring they can be interchanged without mechanical issues.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Turn On / Turn Off Time (Typ)</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Both have unspecified turn on/off times, indicating similar operational behavior.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Vce Saturation (Max)</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>1V</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1V</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Both have a maximum Vce saturation of 1V, ensuring similar performance under load.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="30" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Voltage - Forward (Vf) (Typ)</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>1.2V</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.2V</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Both have a forward voltage of 1.2V, ensuring similar input requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="30" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Voltage - Isolation</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>5000Vrms</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5000Vrms</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Both have 5000Vrms isolation, ensuring safety and compatibility in high-voltage applications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Voltage - Output (Max)</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>35V</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>35V</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Both have a maximum output voltage of 35V, ensuring they can handle the same load conditions.</t>
         </is>
       </c>
     </row>
@@ -563,128 +1527,423 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="80" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>JSON File</t>
+          <t>Parameter</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>LLM Analysis</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CC0603KRX5R9BB105.json</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Here is a detailed comparison table of the three electronic components based on the provided specifications:
-| Parameter                  | CC0603KRX5R9BB105           | CGA3E3X5R1H105K080AB         | CL10A105KB8NNNC               |
-|----------------------------|------------------------------|-------------------------------|-------------------------------|
-| **Part Number**            | CC0603KRX5R9BB105           | CGA3E3X5R1H105K080AB         | CL10A105KB8NNNC               |
-| **Manufacturer (Mfr)**     | YAGEO                        | TDK Corporation               | Samsung Electro-Mechanics      |
-| **Part Status**            | Active                       | Active                        | Active                        |
-| **Capacitance**            | 1 µF                        | 1 µF                         | 1 µF                         |
-| **Tolerance**              | ±10%                        | ±10%                         | ±10%                         |
-| **Voltage - Rated**        | 50V                         | 50V                          | 50V                          |
-| **Temperature Coefficient**| X5R                         | X5R                          | X5R                          |
-| **Operating Temperature**   | -55°C ~ 85°C                | -55°C ~ 85°C                 | -55°C ~ 85°C                 |
-| **Features**               | -                            | -                             | -                             |
-| **Ratings**                | -                            | AEC-Q200                     | -                             |
-| **Applications**           | General Purpose              | Automotive                    | General Purpose               |
-| **Failure Rate**           | -                            | -                             | -                             |
-| **Mounting Type**          | Surface Mount, MLCC         | Surface Mount, MLCC          | Surface Mount, MLCC          |
-| **Package / Case**         | 0603 (1608 Metric)          | 0603 (1608 Metric)           | 0603 (1608 Metric)           |
-| **Size / Dimension**       | 0.063" L x 0.031" W         | 0.063" L x 0.031" W          | 0.063" L x 0.031" W          |
-| **Height - Seated (Max)**  | -                            | -                             | -                             |
-| **Thickness (Max)**        | 0.035" (0.90mm)             | 0.035" (0.90mm)              | 0.035" (0.90mm)              |
-| **Lead Spacing**           | -                            | -                             | -                             |
-| **Lead Style**             | -                            | -                             | -                             |
-### Key Differences:
-1. **Manufacturer**: Each component is produced by a different manufacturer (YAGEO, TDK Corporation, Samsung Electro-Mechanics).
-2. **Ratings**: The CGA3E3X5R1H105K080AB has an AEC-Q200 rating, indicating it is suitable for automotive applications, while the others do not have this rating.
-3. **Applications**: The CGA3E3X5R1H105K080AB is specifically designed for automotive use, while the other two are for general-purpose applications.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>JSON File</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>LLM Analysis</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CC0402KRX5R6BB105.json</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Here is a detailed comparison table of the three electronic components based on the provided specifications:
-| Parameter                     | CC0402KRX5R6BB105               | CL05A105KP5NNNC                  | GRM155R61A105KE15D               |
-|-------------------------------|----------------------------------|----------------------------------|----------------------------------|
-| **Part Number**               | CC0402KRX5R6BB105                | CL05A105KP5NNNC                  | GRM155R61A105KE15D               |
-| **Manufacturer (Mfr)**        | YAGEO                            | Samsung Electro-Mechanics        | Murata Electronics               |
-| **Part Status**               | Active                           | Active                           | Obsolete                         |
-| **Capacitance**               | 1 µF                            | 1 µF                            | 1 µF                            |
-| **Tolerance**                 | ±10%                            | ±10%                            | ±10%                            |
-| **Voltage - Rated**           | 10V                             | 10V                             | 10V                             |
-| **Temperature Coefficient**    | X5R                             | X5R                             | X5R                             |
-| **Operating Temperature**      | -55°C ~ 85°C                   | -55°C ~ 85°C                   | -55°C ~ 85°C                   |
-| **Features**                  | -                               | -                               | -                               |
-| **Ratings**                   | -                               | -                               | -                               |
-| **Applications**              | General Purpose                 | General Purpose                 | General Purpose                 |
-| **Failure Rate**              | -                               | -                               | -                               |
-| **Mounting Type**             | Surface Mount, MLCC             | Surface Mount, MLCC             | Surface Mount, MLCC             |
-| **Package / Case**            | 0402 (1005 Metric)              | 0402 (1005 Metric)              | 0402 (1005 Metric)              |
-| **Size / Dimension**          | 0.039" L x 0.020" W (1.00mm x 0.50mm) | 0.039" L x 0.020" W (1.00mm x 0.50mm) | 0.039" L x 0.020" W (1.00mm x 0.50mm) |
-| **Height - Seated (Max)**     | -                               | -                               | -                               |
-| **Thickness (Max)**           | 0.022" (0.55mm)                | 0.022" (0.55mm)                | 0.022" (0.55mm)                |
-| **Lead Spacing**              | -                               | -                               | -                               |
-| **Lead Style**                | -                               | -                               | -                               |
-### Key Differences:
-- **Part Status**: The CC0402KRX5R6BB105 and CL05A105KP5NNNC are both active components, while the GRM155R61A105KE15D is obsolete.
-- **Manufacturer**: Each component is produced by a different manufacturer (YAGEO, Samsung Electro-Mechanics, and Murata Electronics).
-- **All other parameters** (Capacitance, Tolerance, Voltage, Temperature Coefficient, Operating Temperature, Applications, Mounting Type, Package, Size, and Thickness) are identical across all three components.</t>
+          <t>UCC3946D</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>UCC2946DTR</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>UCC3946DTR</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Replacement Justification</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>DigiKey Programmable</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Not Verified</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Not Verified</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Not Verified</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>All components are marked as "Not Verified," indicating similar status regarding programmability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Mfr</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Texas Instruments</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Texas Instruments</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Texas Instruments</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>All components are from Texas Instruments, ensuring brand consistency.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Mounting Type</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Surface Mount</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Surface Mount</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Surface Mount</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>All components are surface mount, ensuring mechanical compatibility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Number of Voltages Monitored</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>All components monitor 1 voltage, ensuring compatibility in monitoring capability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Operating Temperature</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>0°C ~ 70°C (TA)</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>-40°C ~ 85°C (TA)</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0°C ~ 70°C (TA)</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>UCC2946D operates from 0°C to 70°C, while UCC2946DTR operates from -40°C to 85°C, making UCC2946DTR a better option for harsher environments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Push-Pull, Totem Pole</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Push-Pull, Totem Pole</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Push-Pull, Totem Pole</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>All components provide a Push-Pull, Totem Pole output, ensuring electrical compatibility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Package / Case</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>8-SOIC (0.154", 3.90mm Width)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8-SOIC (0.154", 3.90mm Width)</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8-SOIC (0.154", 3.90mm Width)</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>All components are in an 8-SOIC package, ensuring mechanical compatibility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>UCC3946D</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>UCC2946DTR</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>UCC3946DTR</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>UCC2946DTR is a valid alternative; however, the second UCC3946DTR is identical to UCC3946D.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Part Status</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>All components are active, ensuring availability in the market.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Reset</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Active Low</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Active Low</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Active Low</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>All components have an Active Low reset, ensuring compatibility in reset logic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Reset Timeout</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>160ms Minimum</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>140ms Minimum</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>160ms Minimum</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>UCC2946D has a timeout of 160ms minimum, while UCC2946DTR has 140ms minimum. The latter may be suitable if the application can tolerate a shorter timeout.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Supplier Device Package</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>8-SOIC</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8-SOIC</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8-SOIC</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>All components have the same supplier device package (8-SOIC), ensuring compatibility in PCB design.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Simple Reset/Power-On Reset</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Simple Reset/Power-On Reset</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Simple Reset/Power-On Reset</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>All components serve the same function as Simple Reset/Power-On Reset, ensuring functional compatibility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Voltage - Threshold</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Adjustable/Selectable</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Adjustable/Selectable</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Adjustable/Selectable</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>All components have adjustable/selectable thresholds, ensuring compatibility in voltage settings.</t>
         </is>
       </c>
     </row>
